--- a/application/views/rpt/ru/doc/tovarniy_check.xlsx
+++ b/application/views/rpt/ru/doc/tovarniy_check.xlsx
@@ -83,31 +83,31 @@
     <t>Товарный чек  №  {$v-&gt;doc_view-&gt;view_num}</t>
   </si>
   <si>
-    <t>{$v-&gt;rows[]-&gt;product_name}</t>
-  </si>
-  <si>
     <t>{$v-&gt;rows[]-&gt;i}</t>
   </si>
   <si>
-    <t>{$v-&gt;rows[]-&gt;product_code}</t>
-  </si>
-  <si>
     <t>{$v-&gt;rows[]-&gt;product_unit}</t>
   </si>
   <si>
-    <t>{$v-&gt;rows[]-&gt;product_quantity}</t>
-  </si>
-  <si>
-    <t>{$v-&gt;rows[]-&gt;product_price}</t>
-  </si>
-  <si>
-    <t>{$v-&gt;rows[]-&gt;product_sum}</t>
-  </si>
-  <si>
     <t>{$v-&gt;footer-&gt;total}</t>
   </si>
   <si>
     <t>Всего к оплате: {$v-&gt;doc_view-&gt;total_spell}</t>
+  </si>
+  <si>
+    <t>{$v-&gt;rows[]-&gt;product_name}&lt;merge6&gt;</t>
+  </si>
+  <si>
+    <t>{$v-&gt;rows[]-&gt;product_code}&lt;merge3&gt;</t>
+  </si>
+  <si>
+    <t>{$v-&gt;rows[]-&gt;product_quantity}&lt;merge4&gt;</t>
+  </si>
+  <si>
+    <t>{$v-&gt;rows[]-&gt;product_price}&lt;merge3&gt;</t>
+  </si>
+  <si>
+    <t>{$v-&gt;rows[]-&gt;product_sum}&lt;merge3&gt;</t>
   </si>
 </sst>
 </file>
@@ -270,56 +270,56 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="justify"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -603,7 +603,7 @@
   <dimension ref="B1:Y16"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="B2" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7:I7"/>
+      <selection activeCell="W8" sqref="W8:Y8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -631,152 +631,152 @@
   <sheetData>
     <row r="1" spans="2:25" ht="409.6" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="2:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="18" t="s">
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="18"/>
-      <c r="K2" s="18"/>
-      <c r="L2" s="18"/>
-      <c r="M2" s="18"/>
-      <c r="N2" s="18"/>
-      <c r="O2" s="18"/>
-      <c r="P2" s="18"/>
-      <c r="Q2" s="18"/>
-      <c r="R2" s="18"/>
-      <c r="S2" s="18"/>
-      <c r="T2" s="18"/>
-      <c r="U2" s="18"/>
-      <c r="V2" s="18"/>
-      <c r="W2" s="18"/>
-      <c r="X2" s="19" t="s">
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
+      <c r="N2" s="5"/>
+      <c r="O2" s="5"/>
+      <c r="P2" s="5"/>
+      <c r="Q2" s="5"/>
+      <c r="R2" s="5"/>
+      <c r="S2" s="5"/>
+      <c r="T2" s="5"/>
+      <c r="U2" s="5"/>
+      <c r="V2" s="5"/>
+      <c r="W2" s="5"/>
+      <c r="X2" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="Y2" s="19"/>
+      <c r="Y2" s="6"/>
     </row>
     <row r="3" spans="2:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="18" t="s">
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="18"/>
-      <c r="G3" s="18"/>
-      <c r="H3" s="18"/>
-      <c r="I3" s="18"/>
-      <c r="J3" s="18"/>
-      <c r="K3" s="18"/>
-      <c r="L3" s="18"/>
-      <c r="M3" s="18"/>
-      <c r="N3" s="18"/>
-      <c r="O3" s="18"/>
-      <c r="P3" s="18"/>
-      <c r="Q3" s="18"/>
-      <c r="R3" s="18"/>
-      <c r="S3" s="18"/>
-      <c r="T3" s="18"/>
-      <c r="U3" s="18"/>
-      <c r="V3" s="18"/>
-      <c r="W3" s="18"/>
-      <c r="X3" s="18"/>
-      <c r="Y3" s="18"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="5"/>
+      <c r="O3" s="5"/>
+      <c r="P3" s="5"/>
+      <c r="Q3" s="5"/>
+      <c r="R3" s="5"/>
+      <c r="S3" s="5"/>
+      <c r="T3" s="5"/>
+      <c r="U3" s="5"/>
+      <c r="V3" s="5"/>
+      <c r="W3" s="5"/>
+      <c r="X3" s="5"/>
+      <c r="Y3" s="5"/>
     </row>
     <row r="4" spans="2:25" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="20" t="s">
+      <c r="B4" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="20"/>
-      <c r="D4" s="20"/>
-      <c r="E4" s="20"/>
-      <c r="F4" s="20"/>
-      <c r="G4" s="20"/>
-      <c r="H4" s="20"/>
-      <c r="I4" s="20"/>
-      <c r="J4" s="20"/>
-      <c r="K4" s="20"/>
-      <c r="L4" s="20"/>
-      <c r="M4" s="20"/>
-      <c r="N4" s="20"/>
-      <c r="O4" s="20"/>
-      <c r="P4" s="20"/>
-      <c r="Q4" s="20"/>
-      <c r="R4" s="20"/>
-      <c r="S4" s="20"/>
-      <c r="T4" s="20"/>
-      <c r="U4" s="20"/>
-      <c r="V4" s="20"/>
-      <c r="W4" s="20"/>
-      <c r="X4" s="20"/>
-      <c r="Y4" s="20"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3"/>
+      <c r="R4" s="3"/>
+      <c r="S4" s="3"/>
+      <c r="T4" s="3"/>
+      <c r="U4" s="3"/>
+      <c r="V4" s="3"/>
+      <c r="W4" s="3"/>
+      <c r="X4" s="3"/>
+      <c r="Y4" s="3"/>
     </row>
     <row r="5" spans="2:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="R5" s="15" t="s">
+      <c r="R5" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="S5" s="15"/>
-      <c r="T5" s="15"/>
-      <c r="U5" s="15"/>
-      <c r="V5" s="15"/>
-      <c r="W5" s="15"/>
-      <c r="X5" s="15"/>
-      <c r="Y5" s="15"/>
+      <c r="S5" s="8"/>
+      <c r="T5" s="8"/>
+      <c r="U5" s="8"/>
+      <c r="V5" s="8"/>
+      <c r="W5" s="8"/>
+      <c r="X5" s="8"/>
+      <c r="Y5" s="8"/>
     </row>
     <row r="6" spans="2:25" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C6" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="16" t="s">
+      <c r="D6" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="16"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="16"/>
-      <c r="H6" s="16"/>
-      <c r="I6" s="16"/>
-      <c r="J6" s="16" t="s">
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="K6" s="16"/>
-      <c r="L6" s="16"/>
-      <c r="M6" s="16" t="s">
+      <c r="K6" s="9"/>
+      <c r="L6" s="9"/>
+      <c r="M6" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="N6" s="16"/>
-      <c r="O6" s="16"/>
-      <c r="P6" s="16" t="s">
+      <c r="N6" s="9"/>
+      <c r="O6" s="9"/>
+      <c r="P6" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="Q6" s="16"/>
-      <c r="R6" s="16"/>
-      <c r="S6" s="16"/>
-      <c r="T6" s="16" t="s">
+      <c r="Q6" s="9"/>
+      <c r="R6" s="9"/>
+      <c r="S6" s="9"/>
+      <c r="T6" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="U6" s="16"/>
-      <c r="V6" s="16"/>
-      <c r="W6" s="17" t="s">
+      <c r="U6" s="9"/>
+      <c r="V6" s="9"/>
+      <c r="W6" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="X6" s="17"/>
-      <c r="Y6" s="17"/>
+      <c r="X6" s="10"/>
+      <c r="Y6" s="10"/>
     </row>
     <row r="7" spans="2:25" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C7" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E7" s="11"/>
       <c r="F7" s="11"/>
@@ -784,184 +784,189 @@
       <c r="H7" s="11"/>
       <c r="I7" s="11"/>
       <c r="J7" s="11" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="K7" s="11"/>
       <c r="L7" s="11"/>
       <c r="M7" s="12" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="N7" s="12"/>
       <c r="O7" s="12"/>
       <c r="P7" s="13" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="Q7" s="13"/>
       <c r="R7" s="13"/>
       <c r="S7" s="13"/>
-      <c r="T7" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="U7" s="14"/>
-      <c r="V7" s="14"/>
-      <c r="W7" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="X7" s="14"/>
-      <c r="Y7" s="14"/>
+      <c r="T7" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="U7" s="7"/>
+      <c r="V7" s="7"/>
+      <c r="W7" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="X7" s="7"/>
+      <c r="Y7" s="7"/>
     </row>
     <row r="8" spans="2:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="J8" s="8" t="s">
+      <c r="J8" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="K8" s="8"/>
-      <c r="L8" s="8"/>
-      <c r="M8" s="8"/>
-      <c r="N8" s="8"/>
-      <c r="O8" s="8"/>
-      <c r="P8" s="8"/>
-      <c r="Q8" s="8"/>
-      <c r="R8" s="8"/>
-      <c r="S8" s="8"/>
-      <c r="T8" s="8"/>
-      <c r="U8" s="8"/>
-      <c r="V8" s="8"/>
-      <c r="W8" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="X8" s="9"/>
-      <c r="Y8" s="9"/>
+      <c r="K8" s="14"/>
+      <c r="L8" s="14"/>
+      <c r="M8" s="14"/>
+      <c r="N8" s="14"/>
+      <c r="O8" s="14"/>
+      <c r="P8" s="14"/>
+      <c r="Q8" s="14"/>
+      <c r="R8" s="14"/>
+      <c r="S8" s="14"/>
+      <c r="T8" s="14"/>
+      <c r="U8" s="14"/>
+      <c r="V8" s="14"/>
+      <c r="W8" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="X8" s="15"/>
+      <c r="Y8" s="15"/>
     </row>
     <row r="9" spans="2:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="J9" s="8" t="s">
+      <c r="J9" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="K9" s="8"/>
-      <c r="L9" s="8"/>
-      <c r="M9" s="8"/>
-      <c r="N9" s="8"/>
-      <c r="O9" s="8"/>
-      <c r="P9" s="8"/>
-      <c r="Q9" s="8"/>
-      <c r="R9" s="8"/>
-      <c r="S9" s="8"/>
-      <c r="T9" s="8"/>
-      <c r="U9" s="8"/>
-      <c r="V9" s="8"/>
-      <c r="W9" s="10" t="s">
+      <c r="K9" s="14"/>
+      <c r="L9" s="14"/>
+      <c r="M9" s="14"/>
+      <c r="N9" s="14"/>
+      <c r="O9" s="14"/>
+      <c r="P9" s="14"/>
+      <c r="Q9" s="14"/>
+      <c r="R9" s="14"/>
+      <c r="S9" s="14"/>
+      <c r="T9" s="14"/>
+      <c r="U9" s="14"/>
+      <c r="V9" s="14"/>
+      <c r="W9" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="X9" s="10"/>
-      <c r="Y9" s="10"/>
+      <c r="X9" s="16"/>
+      <c r="Y9" s="16"/>
     </row>
     <row r="10" spans="2:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="J10" s="8" t="s">
+      <c r="J10" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="K10" s="8"/>
-      <c r="L10" s="8"/>
-      <c r="M10" s="8"/>
-      <c r="N10" s="8"/>
-      <c r="O10" s="8"/>
-      <c r="P10" s="8"/>
-      <c r="Q10" s="8"/>
-      <c r="R10" s="8"/>
-      <c r="S10" s="8"/>
-      <c r="T10" s="8"/>
-      <c r="U10" s="8"/>
-      <c r="V10" s="8"/>
-      <c r="W10" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="X10" s="9"/>
-      <c r="Y10" s="9"/>
+      <c r="K10" s="14"/>
+      <c r="L10" s="14"/>
+      <c r="M10" s="14"/>
+      <c r="N10" s="14"/>
+      <c r="O10" s="14"/>
+      <c r="P10" s="14"/>
+      <c r="Q10" s="14"/>
+      <c r="R10" s="14"/>
+      <c r="S10" s="14"/>
+      <c r="T10" s="14"/>
+      <c r="U10" s="14"/>
+      <c r="V10" s="14"/>
+      <c r="W10" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="X10" s="15"/>
+      <c r="Y10" s="15"/>
     </row>
     <row r="11" spans="2:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="12" spans="2:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C12" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
-      <c r="M12" s="3"/>
-      <c r="N12" s="3"/>
-      <c r="O12" s="3"/>
-      <c r="P12" s="3"/>
-      <c r="Q12" s="3"/>
-      <c r="R12" s="3"/>
-      <c r="S12" s="3"/>
-      <c r="T12" s="3"/>
-      <c r="U12" s="3"/>
-      <c r="V12" s="3"/>
-      <c r="W12" s="3"/>
-      <c r="X12" s="3"/>
-      <c r="Y12" s="3"/>
+      <c r="C12" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" s="17"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="17"/>
+      <c r="I12" s="17"/>
+      <c r="J12" s="17"/>
+      <c r="K12" s="17"/>
+      <c r="L12" s="17"/>
+      <c r="M12" s="17"/>
+      <c r="N12" s="17"/>
+      <c r="O12" s="17"/>
+      <c r="P12" s="17"/>
+      <c r="Q12" s="17"/>
+      <c r="R12" s="17"/>
+      <c r="S12" s="17"/>
+      <c r="T12" s="17"/>
+      <c r="U12" s="17"/>
+      <c r="V12" s="17"/>
+      <c r="W12" s="17"/>
+      <c r="X12" s="17"/>
+      <c r="Y12" s="17"/>
     </row>
     <row r="13" spans="2:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
-      <c r="K13" s="4"/>
-      <c r="L13" s="4"/>
-      <c r="M13" s="4"/>
-      <c r="N13" s="4"/>
-      <c r="O13" s="4"/>
-      <c r="P13" s="4"/>
-      <c r="Q13" s="4"/>
-      <c r="R13" s="4"/>
-      <c r="S13" s="4"/>
-      <c r="T13" s="4"/>
-      <c r="U13" s="4"/>
-      <c r="V13" s="4"/>
-      <c r="W13" s="4"/>
-      <c r="X13" s="4"/>
-      <c r="Y13" s="4"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="18"/>
+      <c r="H13" s="18"/>
+      <c r="I13" s="18"/>
+      <c r="J13" s="18"/>
+      <c r="K13" s="18"/>
+      <c r="L13" s="18"/>
+      <c r="M13" s="18"/>
+      <c r="N13" s="18"/>
+      <c r="O13" s="18"/>
+      <c r="P13" s="18"/>
+      <c r="Q13" s="18"/>
+      <c r="R13" s="18"/>
+      <c r="S13" s="18"/>
+      <c r="T13" s="18"/>
+      <c r="U13" s="18"/>
+      <c r="V13" s="18"/>
+      <c r="W13" s="18"/>
+      <c r="X13" s="18"/>
+      <c r="Y13" s="18"/>
     </row>
     <row r="14" spans="2:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="15" spans="2:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H15" s="5" t="s">
+      <c r="H15" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I15" s="5"/>
-      <c r="J15" s="5"/>
-      <c r="K15" s="5"/>
-      <c r="L15" s="5"/>
-      <c r="M15" s="5"/>
-      <c r="N15" s="6"/>
-      <c r="O15" s="6"/>
-      <c r="P15" s="6"/>
-      <c r="Q15" s="6"/>
-      <c r="R15" s="6"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="4"/>
+      <c r="M15" s="4"/>
+      <c r="N15" s="19"/>
+      <c r="O15" s="19"/>
+      <c r="P15" s="19"/>
+      <c r="Q15" s="19"/>
+      <c r="R15" s="19"/>
     </row>
     <row r="16" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="N16" s="7"/>
-      <c r="O16" s="7"/>
-      <c r="P16" s="7"/>
-      <c r="Q16" s="7"/>
-      <c r="R16" s="7"/>
+      <c r="N16" s="20"/>
+      <c r="O16" s="20"/>
+      <c r="P16" s="20"/>
+      <c r="Q16" s="20"/>
+      <c r="R16" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="B4:Y4"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="E2:W2"/>
-    <mergeCell ref="X2:Y2"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="E3:Y3"/>
+    <mergeCell ref="C12:Y12"/>
+    <mergeCell ref="C13:Y13"/>
+    <mergeCell ref="H15:M15"/>
+    <mergeCell ref="N15:R15"/>
+    <mergeCell ref="N16:R16"/>
+    <mergeCell ref="J8:V8"/>
+    <mergeCell ref="W8:Y8"/>
+    <mergeCell ref="J9:V9"/>
+    <mergeCell ref="W9:Y9"/>
+    <mergeCell ref="J10:V10"/>
+    <mergeCell ref="W10:Y10"/>
     <mergeCell ref="W7:Y7"/>
     <mergeCell ref="R5:Y5"/>
     <mergeCell ref="D6:I6"/>
@@ -975,17 +980,12 @@
     <mergeCell ref="M7:O7"/>
     <mergeCell ref="P7:S7"/>
     <mergeCell ref="T7:V7"/>
-    <mergeCell ref="J8:V8"/>
-    <mergeCell ref="W8:Y8"/>
-    <mergeCell ref="J9:V9"/>
-    <mergeCell ref="W9:Y9"/>
-    <mergeCell ref="J10:V10"/>
-    <mergeCell ref="W10:Y10"/>
-    <mergeCell ref="C12:Y12"/>
-    <mergeCell ref="C13:Y13"/>
-    <mergeCell ref="H15:M15"/>
-    <mergeCell ref="N15:R15"/>
-    <mergeCell ref="N16:R16"/>
+    <mergeCell ref="B4:Y4"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="E2:W2"/>
+    <mergeCell ref="X2:Y2"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="E3:Y3"/>
   </mergeCells>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0" footer="0"/>
   <pageSetup paperSize="9" scale="90" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>

--- a/application/views/rpt/ru/doc/tovarniy_check.xlsx
+++ b/application/views/rpt/ru/doc/tovarniy_check.xlsx
@@ -86,9 +86,6 @@
     <t>{$v-&gt;rows[]-&gt;i}</t>
   </si>
   <si>
-    <t>{$v-&gt;rows[]-&gt;product_unit}</t>
-  </si>
-  <si>
     <t>{$v-&gt;footer-&gt;total}</t>
   </si>
   <si>
@@ -108,6 +105,9 @@
   </si>
   <si>
     <t>{$v-&gt;rows[]-&gt;product_sum}&lt;merge3&gt;</t>
+  </si>
+  <si>
+    <t>{$v-&gt;rows[]-&gt;product_unit}&lt;merge3&gt;</t>
   </si>
 </sst>
 </file>
@@ -270,56 +270,56 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="justify"/>
     </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -603,7 +603,7 @@
   <dimension ref="B1:Y16"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="B2" workbookViewId="0">
-      <selection activeCell="W8" sqref="W8:Y8"/>
+      <selection activeCell="J8" sqref="J8:V8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -631,342 +631,337 @@
   <sheetData>
     <row r="1" spans="2:25" ht="409.6" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="2:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="5" t="s">
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5"/>
-      <c r="M2" s="5"/>
-      <c r="N2" s="5"/>
-      <c r="O2" s="5"/>
-      <c r="P2" s="5"/>
-      <c r="Q2" s="5"/>
-      <c r="R2" s="5"/>
-      <c r="S2" s="5"/>
-      <c r="T2" s="5"/>
-      <c r="U2" s="5"/>
-      <c r="V2" s="5"/>
-      <c r="W2" s="5"/>
-      <c r="X2" s="6" t="s">
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="19"/>
+      <c r="L2" s="19"/>
+      <c r="M2" s="19"/>
+      <c r="N2" s="19"/>
+      <c r="O2" s="19"/>
+      <c r="P2" s="19"/>
+      <c r="Q2" s="19"/>
+      <c r="R2" s="19"/>
+      <c r="S2" s="19"/>
+      <c r="T2" s="19"/>
+      <c r="U2" s="19"/>
+      <c r="V2" s="19"/>
+      <c r="W2" s="19"/>
+      <c r="X2" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="Y2" s="6"/>
+      <c r="Y2" s="20"/>
     </row>
     <row r="3" spans="2:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="5" t="s">
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5"/>
-      <c r="M3" s="5"/>
-      <c r="N3" s="5"/>
-      <c r="O3" s="5"/>
-      <c r="P3" s="5"/>
-      <c r="Q3" s="5"/>
-      <c r="R3" s="5"/>
-      <c r="S3" s="5"/>
-      <c r="T3" s="5"/>
-      <c r="U3" s="5"/>
-      <c r="V3" s="5"/>
-      <c r="W3" s="5"/>
-      <c r="X3" s="5"/>
-      <c r="Y3" s="5"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="19"/>
+      <c r="J3" s="19"/>
+      <c r="K3" s="19"/>
+      <c r="L3" s="19"/>
+      <c r="M3" s="19"/>
+      <c r="N3" s="19"/>
+      <c r="O3" s="19"/>
+      <c r="P3" s="19"/>
+      <c r="Q3" s="19"/>
+      <c r="R3" s="19"/>
+      <c r="S3" s="19"/>
+      <c r="T3" s="19"/>
+      <c r="U3" s="19"/>
+      <c r="V3" s="19"/>
+      <c r="W3" s="19"/>
+      <c r="X3" s="19"/>
+      <c r="Y3" s="19"/>
     </row>
     <row r="4" spans="2:25" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
-      <c r="N4" s="3"/>
-      <c r="O4" s="3"/>
-      <c r="P4" s="3"/>
-      <c r="Q4" s="3"/>
-      <c r="R4" s="3"/>
-      <c r="S4" s="3"/>
-      <c r="T4" s="3"/>
-      <c r="U4" s="3"/>
-      <c r="V4" s="3"/>
-      <c r="W4" s="3"/>
-      <c r="X4" s="3"/>
-      <c r="Y4" s="3"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="18"/>
+      <c r="K4" s="18"/>
+      <c r="L4" s="18"/>
+      <c r="M4" s="18"/>
+      <c r="N4" s="18"/>
+      <c r="O4" s="18"/>
+      <c r="P4" s="18"/>
+      <c r="Q4" s="18"/>
+      <c r="R4" s="18"/>
+      <c r="S4" s="18"/>
+      <c r="T4" s="18"/>
+      <c r="U4" s="18"/>
+      <c r="V4" s="18"/>
+      <c r="W4" s="18"/>
+      <c r="X4" s="18"/>
+      <c r="Y4" s="18"/>
     </row>
     <row r="5" spans="2:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="R5" s="8" t="s">
+      <c r="R5" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="S5" s="8"/>
-      <c r="T5" s="8"/>
-      <c r="U5" s="8"/>
-      <c r="V5" s="8"/>
-      <c r="W5" s="8"/>
-      <c r="X5" s="8"/>
-      <c r="Y5" s="8"/>
+      <c r="S5" s="12"/>
+      <c r="T5" s="12"/>
+      <c r="U5" s="12"/>
+      <c r="V5" s="12"/>
+      <c r="W5" s="12"/>
+      <c r="X5" s="12"/>
+      <c r="Y5" s="12"/>
     </row>
     <row r="6" spans="2:25" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C6" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="9" t="s">
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="K6" s="9"/>
-      <c r="L6" s="9"/>
-      <c r="M6" s="9" t="s">
+      <c r="K6" s="13"/>
+      <c r="L6" s="13"/>
+      <c r="M6" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="N6" s="9"/>
-      <c r="O6" s="9"/>
-      <c r="P6" s="9" t="s">
+      <c r="N6" s="13"/>
+      <c r="O6" s="13"/>
+      <c r="P6" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="Q6" s="9"/>
-      <c r="R6" s="9"/>
-      <c r="S6" s="9"/>
-      <c r="T6" s="9" t="s">
+      <c r="Q6" s="13"/>
+      <c r="R6" s="13"/>
+      <c r="S6" s="13"/>
+      <c r="T6" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="U6" s="9"/>
-      <c r="V6" s="9"/>
-      <c r="W6" s="10" t="s">
+      <c r="U6" s="13"/>
+      <c r="V6" s="13"/>
+      <c r="W6" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="X6" s="10"/>
-      <c r="Y6" s="10"/>
+      <c r="X6" s="14"/>
+      <c r="Y6" s="14"/>
     </row>
     <row r="7" spans="2:25" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C7" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="D7" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="15"/>
+      <c r="J7" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="11"/>
-      <c r="J7" s="11" t="s">
+      <c r="K7" s="15"/>
+      <c r="L7" s="15"/>
+      <c r="M7" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="N7" s="16"/>
+      <c r="O7" s="16"/>
+      <c r="P7" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="K7" s="11"/>
-      <c r="L7" s="11"/>
-      <c r="M7" s="12" t="s">
+      <c r="Q7" s="17"/>
+      <c r="R7" s="17"/>
+      <c r="S7" s="17"/>
+      <c r="T7" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="U7" s="11"/>
+      <c r="V7" s="11"/>
+      <c r="W7" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="X7" s="11"/>
+      <c r="Y7" s="11"/>
+    </row>
+    <row r="8" spans="2:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J8" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="K8" s="8"/>
+      <c r="L8" s="8"/>
+      <c r="M8" s="8"/>
+      <c r="N8" s="8"/>
+      <c r="O8" s="8"/>
+      <c r="P8" s="8"/>
+      <c r="Q8" s="8"/>
+      <c r="R8" s="8"/>
+      <c r="S8" s="8"/>
+      <c r="T8" s="8"/>
+      <c r="U8" s="8"/>
+      <c r="V8" s="8"/>
+      <c r="W8" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="N7" s="12"/>
-      <c r="O7" s="12"/>
-      <c r="P7" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q7" s="13"/>
-      <c r="R7" s="13"/>
-      <c r="S7" s="13"/>
-      <c r="T7" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="U7" s="7"/>
-      <c r="V7" s="7"/>
-      <c r="W7" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="X7" s="7"/>
-      <c r="Y7" s="7"/>
-    </row>
-    <row r="8" spans="2:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="J8" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="K8" s="14"/>
-      <c r="L8" s="14"/>
-      <c r="M8" s="14"/>
-      <c r="N8" s="14"/>
-      <c r="O8" s="14"/>
-      <c r="P8" s="14"/>
-      <c r="Q8" s="14"/>
-      <c r="R8" s="14"/>
-      <c r="S8" s="14"/>
-      <c r="T8" s="14"/>
-      <c r="U8" s="14"/>
-      <c r="V8" s="14"/>
-      <c r="W8" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="X8" s="15"/>
-      <c r="Y8" s="15"/>
+      <c r="X8" s="9"/>
+      <c r="Y8" s="9"/>
     </row>
     <row r="9" spans="2:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="J9" s="14" t="s">
+      <c r="J9" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="K9" s="14"/>
-      <c r="L9" s="14"/>
-      <c r="M9" s="14"/>
-      <c r="N9" s="14"/>
-      <c r="O9" s="14"/>
-      <c r="P9" s="14"/>
-      <c r="Q9" s="14"/>
-      <c r="R9" s="14"/>
-      <c r="S9" s="14"/>
-      <c r="T9" s="14"/>
-      <c r="U9" s="14"/>
-      <c r="V9" s="14"/>
-      <c r="W9" s="16" t="s">
+      <c r="K9" s="8"/>
+      <c r="L9" s="8"/>
+      <c r="M9" s="8"/>
+      <c r="N9" s="8"/>
+      <c r="O9" s="8"/>
+      <c r="P9" s="8"/>
+      <c r="Q9" s="8"/>
+      <c r="R9" s="8"/>
+      <c r="S9" s="8"/>
+      <c r="T9" s="8"/>
+      <c r="U9" s="8"/>
+      <c r="V9" s="8"/>
+      <c r="W9" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="X9" s="16"/>
-      <c r="Y9" s="16"/>
+      <c r="X9" s="10"/>
+      <c r="Y9" s="10"/>
     </row>
     <row r="10" spans="2:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="J10" s="14" t="s">
+      <c r="J10" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="K10" s="14"/>
-      <c r="L10" s="14"/>
-      <c r="M10" s="14"/>
-      <c r="N10" s="14"/>
-      <c r="O10" s="14"/>
-      <c r="P10" s="14"/>
-      <c r="Q10" s="14"/>
-      <c r="R10" s="14"/>
-      <c r="S10" s="14"/>
-      <c r="T10" s="14"/>
-      <c r="U10" s="14"/>
-      <c r="V10" s="14"/>
-      <c r="W10" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="X10" s="15"/>
-      <c r="Y10" s="15"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="8"/>
+      <c r="M10" s="8"/>
+      <c r="N10" s="8"/>
+      <c r="O10" s="8"/>
+      <c r="P10" s="8"/>
+      <c r="Q10" s="8"/>
+      <c r="R10" s="8"/>
+      <c r="S10" s="8"/>
+      <c r="T10" s="8"/>
+      <c r="U10" s="8"/>
+      <c r="V10" s="8"/>
+      <c r="W10" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="X10" s="9"/>
+      <c r="Y10" s="9"/>
     </row>
     <row r="11" spans="2:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="12" spans="2:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C12" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="D12" s="17"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="17"/>
-      <c r="G12" s="17"/>
-      <c r="H12" s="17"/>
-      <c r="I12" s="17"/>
-      <c r="J12" s="17"/>
-      <c r="K12" s="17"/>
-      <c r="L12" s="17"/>
-      <c r="M12" s="17"/>
-      <c r="N12" s="17"/>
-      <c r="O12" s="17"/>
-      <c r="P12" s="17"/>
-      <c r="Q12" s="17"/>
-      <c r="R12" s="17"/>
-      <c r="S12" s="17"/>
-      <c r="T12" s="17"/>
-      <c r="U12" s="17"/>
-      <c r="V12" s="17"/>
-      <c r="W12" s="17"/>
-      <c r="X12" s="17"/>
-      <c r="Y12" s="17"/>
+      <c r="C12" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+      <c r="N12" s="3"/>
+      <c r="O12" s="3"/>
+      <c r="P12" s="3"/>
+      <c r="Q12" s="3"/>
+      <c r="R12" s="3"/>
+      <c r="S12" s="3"/>
+      <c r="T12" s="3"/>
+      <c r="U12" s="3"/>
+      <c r="V12" s="3"/>
+      <c r="W12" s="3"/>
+      <c r="X12" s="3"/>
+      <c r="Y12" s="3"/>
     </row>
     <row r="13" spans="2:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C13" s="18" t="s">
+      <c r="C13" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D13" s="18"/>
-      <c r="E13" s="18"/>
-      <c r="F13" s="18"/>
-      <c r="G13" s="18"/>
-      <c r="H13" s="18"/>
-      <c r="I13" s="18"/>
-      <c r="J13" s="18"/>
-      <c r="K13" s="18"/>
-      <c r="L13" s="18"/>
-      <c r="M13" s="18"/>
-      <c r="N13" s="18"/>
-      <c r="O13" s="18"/>
-      <c r="P13" s="18"/>
-      <c r="Q13" s="18"/>
-      <c r="R13" s="18"/>
-      <c r="S13" s="18"/>
-      <c r="T13" s="18"/>
-      <c r="U13" s="18"/>
-      <c r="V13" s="18"/>
-      <c r="W13" s="18"/>
-      <c r="X13" s="18"/>
-      <c r="Y13" s="18"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4"/>
+      <c r="M13" s="4"/>
+      <c r="N13" s="4"/>
+      <c r="O13" s="4"/>
+      <c r="P13" s="4"/>
+      <c r="Q13" s="4"/>
+      <c r="R13" s="4"/>
+      <c r="S13" s="4"/>
+      <c r="T13" s="4"/>
+      <c r="U13" s="4"/>
+      <c r="V13" s="4"/>
+      <c r="W13" s="4"/>
+      <c r="X13" s="4"/>
+      <c r="Y13" s="4"/>
     </row>
     <row r="14" spans="2:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="15" spans="2:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H15" s="4" t="s">
+      <c r="H15" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="I15" s="4"/>
-      <c r="J15" s="4"/>
-      <c r="K15" s="4"/>
-      <c r="L15" s="4"/>
-      <c r="M15" s="4"/>
-      <c r="N15" s="19"/>
-      <c r="O15" s="19"/>
-      <c r="P15" s="19"/>
-      <c r="Q15" s="19"/>
-      <c r="R15" s="19"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="5"/>
+      <c r="M15" s="5"/>
+      <c r="N15" s="6"/>
+      <c r="O15" s="6"/>
+      <c r="P15" s="6"/>
+      <c r="Q15" s="6"/>
+      <c r="R15" s="6"/>
     </row>
     <row r="16" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="N16" s="20"/>
-      <c r="O16" s="20"/>
-      <c r="P16" s="20"/>
-      <c r="Q16" s="20"/>
-      <c r="R16" s="20"/>
+      <c r="N16" s="7"/>
+      <c r="O16" s="7"/>
+      <c r="P16" s="7"/>
+      <c r="Q16" s="7"/>
+      <c r="R16" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="C12:Y12"/>
-    <mergeCell ref="C13:Y13"/>
-    <mergeCell ref="H15:M15"/>
-    <mergeCell ref="N15:R15"/>
-    <mergeCell ref="N16:R16"/>
-    <mergeCell ref="J8:V8"/>
-    <mergeCell ref="W8:Y8"/>
-    <mergeCell ref="J9:V9"/>
-    <mergeCell ref="W9:Y9"/>
-    <mergeCell ref="J10:V10"/>
-    <mergeCell ref="W10:Y10"/>
+    <mergeCell ref="B4:Y4"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="E2:W2"/>
+    <mergeCell ref="X2:Y2"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="E3:Y3"/>
     <mergeCell ref="W7:Y7"/>
     <mergeCell ref="R5:Y5"/>
     <mergeCell ref="D6:I6"/>
@@ -980,12 +975,17 @@
     <mergeCell ref="M7:O7"/>
     <mergeCell ref="P7:S7"/>
     <mergeCell ref="T7:V7"/>
-    <mergeCell ref="B4:Y4"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="E2:W2"/>
-    <mergeCell ref="X2:Y2"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="E3:Y3"/>
+    <mergeCell ref="J8:V8"/>
+    <mergeCell ref="W8:Y8"/>
+    <mergeCell ref="J9:V9"/>
+    <mergeCell ref="W9:Y9"/>
+    <mergeCell ref="J10:V10"/>
+    <mergeCell ref="W10:Y10"/>
+    <mergeCell ref="C12:Y12"/>
+    <mergeCell ref="C13:Y13"/>
+    <mergeCell ref="H15:M15"/>
+    <mergeCell ref="N15:R15"/>
+    <mergeCell ref="N16:R16"/>
   </mergeCells>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0" footer="0"/>
   <pageSetup paperSize="9" scale="90" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
